--- a/outFile/已识别网站记录.xlsx
+++ b/outFile/已识别网站记录.xlsx
@@ -4,6 +4,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="2024-05-10" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -32,7 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -397,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -418,6 +427,9 @@
       <c r="E1" t="str">
         <v>备注</v>
       </c>
+      <c r="F1" t="str">
+        <v>时间</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -432,6 +444,12 @@
       <c r="D2" t="str">
         <v>是</v>
       </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>979</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -446,6 +464,12 @@
       <c r="D3" t="str">
         <v>是</v>
       </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>979</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -460,6 +484,12 @@
       <c r="D4" t="str">
         <v>非</v>
       </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>979</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -474,6 +504,12 @@
       <c r="D5" t="str">
         <v>非</v>
       </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>979</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -488,10 +524,1032 @@
       <c r="D6" t="str">
         <v>是</v>
       </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>gb@electrobase.lv</v>
+      </c>
+      <c r="B7" t="str">
+        <v>http://electrobase.lv</v>
+      </c>
+      <c r="C7" t="str">
+        <v>bicycles</v>
+      </c>
+      <c r="D7" t="str">
+        <v>是</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>jekingxu@wic-power.com</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://www.wic-power.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v xml:space="preserve"> Energy Storage, Lithium</v>
+      </c>
+      <c r="D8" t="str">
+        <v>是</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>hospitality@southampton.ac.uk</v>
+      </c>
+      <c r="B9" t="str">
+        <v>http://southampton.ac.uk</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>非</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ken.campbell@partsource.ca</v>
+      </c>
+      <c r="B10" t="str">
+        <v>http://partsource.ca</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>非</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>papakura@scottelectrical.co.nz</v>
+      </c>
+      <c r="B11" t="str">
+        <v>http://scottelectrical.co.nz</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Magazine</v>
+      </c>
+      <c r="D11" t="str">
+        <v>是</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>gb@electrobase.lv</v>
+      </c>
+      <c r="B12" t="str">
+        <v>http://electrobase.lv</v>
+      </c>
+      <c r="C12" t="str">
+        <v>bicycles</v>
+      </c>
+      <c r="D12" t="str">
+        <v>是</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>jekingxu@wic-power.com</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://www.wic-power.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v xml:space="preserve"> Energy Storage, Lithium</v>
+      </c>
+      <c r="D13" t="str">
+        <v>是</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>hospitality@southampton.ac.uk</v>
+      </c>
+      <c r="B14" t="str">
+        <v>http://southampton.ac.uk</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>非</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>ken.campbell@partsource.ca</v>
+      </c>
+      <c r="B15" t="str">
+        <v>http://partsource.ca</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>非</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>papakura@scottelectrical.co.nz</v>
+      </c>
+      <c r="B16" t="str">
+        <v>http://scottelectrical.co.nz</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Magazine</v>
+      </c>
+      <c r="D16" t="str">
+        <v>是</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>gb@electrobase.lv</v>
+      </c>
+      <c r="B17" t="str">
+        <v>http://electrobase.lv</v>
+      </c>
+      <c r="C17" t="str">
+        <v>bicycles</v>
+      </c>
+      <c r="D17" t="str">
+        <v>是</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>jekingxu@wic-power.com</v>
+      </c>
+      <c r="B18" t="str">
+        <v>https://www.wic-power.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v xml:space="preserve"> Energy Storage, Lithium</v>
+      </c>
+      <c r="D18" t="str">
+        <v>是</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>hospitality@southampton.ac.uk</v>
+      </c>
+      <c r="B19" t="str">
+        <v>http://southampton.ac.uk</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>非</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>ken.campbell@partsource.ca</v>
+      </c>
+      <c r="B20" t="str">
+        <v>http://partsource.ca</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>非</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>papakura@scottelectrical.co.nz</v>
+      </c>
+      <c r="B21" t="str">
+        <v>http://scottelectrical.co.nz</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Magazine</v>
+      </c>
+      <c r="D21" t="str">
+        <v>是</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>fbindonesia@furukawa-battery.co.id</v>
+      </c>
+      <c r="B22" t="str">
+        <v>http://furukawa-battery.co.id</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>非</v>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>dan.hunt@shieldbatteries.co.uk</v>
+      </c>
+      <c r="B23" t="str">
+        <v>http://shieldbatteries.co.uk</v>
+      </c>
+      <c r="C23" t="str">
+        <v>motorcycle</v>
+      </c>
+      <c r="D23" t="str">
+        <v>是</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>gb@electrobase.lv</v>
+      </c>
+      <c r="B24" t="str">
+        <v>http://electrobase.lv</v>
+      </c>
+      <c r="C24" t="str">
+        <v>bicycles</v>
+      </c>
+      <c r="D24" t="str">
+        <v>是</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>jasmine@batteryspace.com</v>
+      </c>
+      <c r="B25" t="str">
+        <v>http://batteryspace.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>ebike</v>
+      </c>
+      <c r="D25" t="str">
+        <v>是</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>hannah@dbs.energy</v>
+      </c>
+      <c r="B26" t="str">
+        <v>http://dbs.energy</v>
+      </c>
+      <c r="C26" t="str">
+        <v>motorcycle</v>
+      </c>
+      <c r="D26" t="str">
+        <v>是</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>2024-05-10 17-23-29:784ms</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>gb@electrobase.lv</v>
+      </c>
+      <c r="B27" t="str">
+        <v>http://electrobase.lv</v>
+      </c>
+      <c r="C27" t="str">
+        <v>bicycles</v>
+      </c>
+      <c r="D27" t="str">
+        <v>是</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v>2024-05-10 17-59-6:10ms</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>jekingxu@wic-power.com</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://www.wic-power.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v xml:space="preserve"> Energy Storage, Lithium</v>
+      </c>
+      <c r="D28" t="str">
+        <v>是</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v>2024-05-10 17-59-35:305ms</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>hospitality@southampton.ac.uk</v>
+      </c>
+      <c r="B29" t="str">
+        <v>http://southampton.ac.uk</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>非</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v>2024-05-10 17-59-40:350ms</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>ken.campbell@partsource.ca</v>
+      </c>
+      <c r="B30" t="str">
+        <v>http://partsource.ca</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>非</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>2024-05-10 17-59-52:479ms</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>papakura@scottelectrical.co.nz</v>
+      </c>
+      <c r="B31" t="str">
+        <v>http://scottelectrical.co.nz</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Magazine</v>
+      </c>
+      <c r="D31" t="str">
+        <v>是</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v>2024-05-10 18-0-1:517ms</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>fbindonesia@furukawa-battery.co.id</v>
+      </c>
+      <c r="B32" t="str">
+        <v>http://furukawa-battery.co.id</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>非</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>2024-05-10 18-0-15:631ms</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>dan.hunt@shieldbatteries.co.uk</v>
+      </c>
+      <c r="B33" t="str">
+        <v>http://shieldbatteries.co.uk</v>
+      </c>
+      <c r="C33" t="str">
+        <v>motorcycle</v>
+      </c>
+      <c r="D33" t="str">
+        <v>是</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v>2024-05-10 18-0-20:681ms</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>gb@electrobase.lv</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://electrobase.lv</v>
+      </c>
+      <c r="C34" t="str">
+        <v>bicycles</v>
+      </c>
+      <c r="D34" t="str">
+        <v>是</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>2024-05-10 18-0-24:704ms</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>jasmine@batteryspace.com</v>
+      </c>
+      <c r="B35" t="str">
+        <v>http://batteryspace.com</v>
+      </c>
+      <c r="C35" t="str">
+        <v>ebike</v>
+      </c>
+      <c r="D35" t="str">
+        <v>是</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>2024-05-10 18-0-36:839ms</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>hannah@dbs.energy</v>
+      </c>
+      <c r="B36" t="str">
+        <v>http://dbs.energy</v>
+      </c>
+      <c r="C36" t="str">
+        <v>motorcycle</v>
+      </c>
+      <c r="D36" t="str">
+        <v>是</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>2024-05-10 18-0-41:899ms</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>elvio.garganigo@enerproject.com</v>
+      </c>
+      <c r="B37" t="str">
+        <v>http://enerproject.com</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>非</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>2024-05-10 18-0-49:979ms</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>gb@electrobase.lv</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://electrobase.lv</v>
+      </c>
+      <c r="C38" t="str">
+        <v>bicycles</v>
+      </c>
+      <c r="D38" t="str">
+        <v>是</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>2024-05-10 18-15-34:535ms</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>jekingxu@wic-power.com</v>
+      </c>
+      <c r="B39" t="str">
+        <v>https://www.wic-power.com</v>
+      </c>
+      <c r="C39" t="str">
+        <v xml:space="preserve"> Energy Storage, Lithium</v>
+      </c>
+      <c r="D39" t="str">
+        <v>是</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>2024-05-10 18-16-1:707ms</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>hospitality@southampton.ac.uk</v>
+      </c>
+      <c r="B40" t="str">
+        <v>http://southampton.ac.uk</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>非</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v>2024-05-10 18-16-7:745ms</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>ken.campbell@partsource.ca</v>
+      </c>
+      <c r="B41" t="str">
+        <v>http://partsource.ca</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v>非</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>2024-05-10 18-16-20:815ms</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>papakura@scottelectrical.co.nz</v>
+      </c>
+      <c r="B42" t="str">
+        <v>http://scottelectrical.co.nz</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Magazine</v>
+      </c>
+      <c r="D42" t="str">
+        <v>是</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>2024-05-10 18-16-29:878ms</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>fbindonesia@furukawa-battery.co.id</v>
+      </c>
+      <c r="B43" t="str">
+        <v>http://furukawa-battery.co.id</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v>非</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>2024-05-10 18-16-43:983ms</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>dan.hunt@shieldbatteries.co.uk</v>
+      </c>
+      <c r="B44" t="str">
+        <v>http://shieldbatteries.co.uk</v>
+      </c>
+      <c r="C44" t="str">
+        <v>motorcycle</v>
+      </c>
+      <c r="D44" t="str">
+        <v>是</v>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>2024-05-10 18-16-50:42ms</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>gb@electrobase.lv</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://electrobase.lv</v>
+      </c>
+      <c r="C45" t="str">
+        <v>bicycles</v>
+      </c>
+      <c r="D45" t="str">
+        <v>是</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>2024-05-10 18-16-53:92ms</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>jasmine@batteryspace.com</v>
+      </c>
+      <c r="B46" t="str">
+        <v>http://batteryspace.com</v>
+      </c>
+      <c r="C46" t="str">
+        <v>ebike</v>
+      </c>
+      <c r="D46" t="str">
+        <v>是</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v>2024-05-10 18-17-15:271ms</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>hannah@dbs.energy</v>
+      </c>
+      <c r="B47" t="str">
+        <v>http://dbs.energy</v>
+      </c>
+      <c r="C47" t="str">
+        <v>motorcycle</v>
+      </c>
+      <c r="D47" t="str">
+        <v>是</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v>2024-05-10 18-17-21:323ms</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>elvio.garganigo@enerproject.com</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://enerproject.com</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>非</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v>2024-05-10 18-17-28:367ms</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F48"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>邮箱</v>
+      </c>
+      <c r="B1" t="str">
+        <v>网站</v>
+      </c>
+      <c r="C1" t="str">
+        <v>相关属性</v>
+      </c>
+      <c r="D1" t="str">
+        <v>判定</v>
+      </c>
+      <c r="E1" t="str">
+        <v>备注</v>
+      </c>
+      <c r="F1" t="str">
+        <v>时间</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>邮箱</v>
+      </c>
+      <c r="B1" t="str">
+        <v>网站</v>
+      </c>
+      <c r="C1" t="str">
+        <v>相关属性</v>
+      </c>
+      <c r="D1" t="str">
+        <v>判定</v>
+      </c>
+      <c r="E1" t="str">
+        <v>备注</v>
+      </c>
+      <c r="F1" t="str">
+        <v>时间</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>邮箱</v>
+      </c>
+      <c r="B1" t="str">
+        <v>网站</v>
+      </c>
+      <c r="C1" t="str">
+        <v>相关属性</v>
+      </c>
+      <c r="D1" t="str">
+        <v>判定</v>
+      </c>
+      <c r="E1" t="str">
+        <v>备注</v>
+      </c>
+      <c r="F1" t="str">
+        <v>时间</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>邮箱</v>
+      </c>
+      <c r="B1" t="str">
+        <v>网站</v>
+      </c>
+      <c r="C1" t="str">
+        <v>相关属性</v>
+      </c>
+      <c r="D1" t="str">
+        <v>判定</v>
+      </c>
+      <c r="E1" t="str">
+        <v>备注</v>
+      </c>
+      <c r="F1" t="str">
+        <v>时间</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>邮箱</v>
+      </c>
+      <c r="B1" t="str">
+        <v>网站</v>
+      </c>
+      <c r="C1" t="str">
+        <v>相关属性</v>
+      </c>
+      <c r="D1" t="str">
+        <v>判定</v>
+      </c>
+      <c r="E1" t="str">
+        <v>备注</v>
+      </c>
+      <c r="F1" t="str">
+        <v>时间</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
   </ignoredErrors>
 </worksheet>
 </file>